--- a/data/mapping_understat.xlsx
+++ b/data/mapping_understat.xlsx
@@ -1,42 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.satre\Documents\GitHub Repos\FPLAnlysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\GitHub\FPLAnlysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070D6FC2-4DF8-4F46-B97F-98091EDAC383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="16920" windowHeight="10575"/>
+    <workbookView xWindow="5490" yWindow="3670" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="understat" sheetId="1" r:id="rId1"/>
+    <sheet name="spi" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="player_idlist" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="players_raw" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="player_idlist" localSheetId="0">understat!#REF!</definedName>
+    <definedName name="players_raw" localSheetId="0">understat!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="699">
   <si>
     <t>understat_id</t>
   </si>
@@ -2067,12 +2061,78 @@
   </si>
   <si>
     <t>van Aanholt</t>
+  </si>
+  <si>
+    <t>spi_team_name</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t>Leicester City</t>
+  </si>
+  <si>
+    <t>Wolverhampton</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Leeds United</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>team_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2133,16 +2193,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2215,16 +2291,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D1048576" totalsRowShown="0">
-  <autoFilter ref="A1:D1048576"/>
-  <sortState ref="A69:D398">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:D398">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="fpl_id"/>
-    <tableColumn id="2" name="understat_id" dataDxfId="1"/>
-    <tableColumn id="4" name="first_name" dataDxfId="0"/>
-    <tableColumn id="5" name="second_name"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="fpl_id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="understat_id" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="first_name" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="second_name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0D651DF9-DE06-498D-AE36-462E54EC5AD2}" name="Table1" displayName="Table1" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21" xr:uid="{ACFEC249-7CBC-4803-9530-6E6809505D05}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1BC0CDCA-5234-4B2C-BEFE-06904E6CED89}" name="spi_team_name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D415DD7B-653D-4BFC-86AB-E7945F55D0F6}" name="team_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2526,22 +2616,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D398"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2555,7 +2645,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>118</v>
       </c>
@@ -2569,7 +2659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>377</v>
       </c>
@@ -2583,7 +2673,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>572</v>
       </c>
@@ -2597,7 +2687,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>268</v>
       </c>
@@ -2611,7 +2701,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>562</v>
       </c>
@@ -2625,7 +2715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>419</v>
       </c>
@@ -2639,7 +2729,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>279</v>
       </c>
@@ -2653,7 +2743,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>221</v>
       </c>
@@ -2667,7 +2757,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>531</v>
       </c>
@@ -2681,7 +2771,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>386</v>
       </c>
@@ -2695,7 +2785,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>259</v>
       </c>
@@ -2709,7 +2799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>201</v>
       </c>
@@ -2723,7 +2813,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>394</v>
       </c>
@@ -2737,7 +2827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>339</v>
       </c>
@@ -2751,7 +2841,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>104</v>
       </c>
@@ -2765,7 +2855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>79</v>
       </c>
@@ -2779,7 +2869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>227</v>
       </c>
@@ -2793,7 +2883,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>509</v>
       </c>
@@ -2807,7 +2897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>440</v>
       </c>
@@ -2821,7 +2911,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>154</v>
       </c>
@@ -2835,7 +2925,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>437</v>
       </c>
@@ -2849,7 +2939,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>340</v>
       </c>
@@ -2863,7 +2953,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>516</v>
       </c>
@@ -2877,7 +2967,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>368</v>
       </c>
@@ -2891,7 +2981,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>112</v>
       </c>
@@ -2905,7 +2995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2919,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>389</v>
       </c>
@@ -2933,7 +3023,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>140</v>
       </c>
@@ -2947,7 +3037,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>197</v>
       </c>
@@ -2961,7 +3051,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2975,7 +3065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>310</v>
       </c>
@@ -2989,7 +3079,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>443</v>
       </c>
@@ -3003,7 +3093,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>351</v>
       </c>
@@ -3017,7 +3107,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>543</v>
       </c>
@@ -3031,7 +3121,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>202</v>
       </c>
@@ -3045,7 +3135,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>82</v>
       </c>
@@ -3059,7 +3149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>106</v>
       </c>
@@ -3073,7 +3163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>87</v>
       </c>
@@ -3087,7 +3177,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>235</v>
       </c>
@@ -3101,7 +3191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>412</v>
       </c>
@@ -3115,7 +3205,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>345</v>
       </c>
@@ -3129,7 +3219,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>108</v>
       </c>
@@ -3143,7 +3233,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>376</v>
       </c>
@@ -3157,7 +3247,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3171,7 +3261,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>132</v>
       </c>
@@ -3185,7 +3275,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>360</v>
       </c>
@@ -3199,7 +3289,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>400</v>
       </c>
@@ -3213,7 +3303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>362</v>
       </c>
@@ -3227,7 +3317,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>76</v>
       </c>
@@ -3241,7 +3331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>458</v>
       </c>
@@ -3255,7 +3345,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>478</v>
       </c>
@@ -3269,7 +3359,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>445</v>
       </c>
@@ -3283,7 +3373,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>95</v>
       </c>
@@ -3297,7 +3387,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>262</v>
       </c>
@@ -3311,7 +3401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>98</v>
       </c>
@@ -3325,7 +3415,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>182</v>
       </c>
@@ -3339,7 +3429,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>424</v>
       </c>
@@ -3353,7 +3443,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>61</v>
       </c>
@@ -3367,7 +3457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>467</v>
       </c>
@@ -3381,7 +3471,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>101</v>
       </c>
@@ -3395,7 +3485,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>125</v>
       </c>
@@ -3409,7 +3499,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>175</v>
       </c>
@@ -3423,7 +3513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>164</v>
       </c>
@@ -3437,7 +3527,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>277</v>
       </c>
@@ -3451,7 +3541,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>320</v>
       </c>
@@ -3465,7 +3555,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>496</v>
       </c>
@@ -3479,7 +3569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>498</v>
       </c>
@@ -3493,7 +3583,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>113</v>
       </c>
@@ -3504,7 +3594,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>569</v>
       </c>
@@ -3518,7 +3608,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>501</v>
       </c>
@@ -3532,7 +3622,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>232</v>
       </c>
@@ -3546,7 +3636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>234</v>
       </c>
@@ -3560,7 +3650,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>116</v>
       </c>
@@ -3574,7 +3664,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>577</v>
       </c>
@@ -3588,7 +3678,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>459</v>
       </c>
@@ -3602,7 +3692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>152</v>
       </c>
@@ -3616,7 +3706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3630,7 +3720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>195</v>
       </c>
@@ -3644,7 +3734,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>205</v>
       </c>
@@ -3658,7 +3748,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>558</v>
       </c>
@@ -3672,7 +3762,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>435</v>
       </c>
@@ -3686,7 +3776,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>200</v>
       </c>
@@ -3700,7 +3790,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>486</v>
       </c>
@@ -3714,7 +3804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>325</v>
       </c>
@@ -3728,7 +3818,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>395</v>
       </c>
@@ -3742,7 +3832,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>163</v>
       </c>
@@ -3756,7 +3846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>50</v>
       </c>
@@ -3770,7 +3860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>214</v>
       </c>
@@ -3784,7 +3874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>166</v>
       </c>
@@ -3798,7 +3888,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>272</v>
       </c>
@@ -3812,7 +3902,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>291</v>
       </c>
@@ -3826,7 +3916,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>539</v>
       </c>
@@ -3840,7 +3930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>149</v>
       </c>
@@ -3854,7 +3944,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>464</v>
       </c>
@@ -3868,7 +3958,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>565</v>
       </c>
@@ -3882,7 +3972,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>446</v>
       </c>
@@ -3896,7 +3986,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>556</v>
       </c>
@@ -3910,7 +4000,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>570</v>
       </c>
@@ -3924,7 +4014,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>391</v>
       </c>
@@ -3938,7 +4028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>155</v>
       </c>
@@ -3952,7 +4042,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>451</v>
       </c>
@@ -3966,7 +4056,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>382</v>
       </c>
@@ -3980,7 +4070,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>457</v>
       </c>
@@ -3994,7 +4084,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>512</v>
       </c>
@@ -4008,7 +4098,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>62</v>
       </c>
@@ -4022,7 +4112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>519</v>
       </c>
@@ -4036,7 +4126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>421</v>
       </c>
@@ -4050,7 +4140,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>353</v>
       </c>
@@ -4064,7 +4154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>29</v>
       </c>
@@ -4078,7 +4168,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>526</v>
       </c>
@@ -4092,7 +4182,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>219</v>
       </c>
@@ -4106,7 +4196,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>489</v>
       </c>
@@ -4120,7 +4210,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>431</v>
       </c>
@@ -4134,7 +4224,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>302</v>
       </c>
@@ -4148,7 +4238,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>323</v>
       </c>
@@ -4162,7 +4252,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>515</v>
       </c>
@@ -4176,7 +4266,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>423</v>
       </c>
@@ -4190,7 +4280,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>249</v>
       </c>
@@ -4204,7 +4294,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>346</v>
       </c>
@@ -4218,7 +4308,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>284</v>
       </c>
@@ -4232,7 +4322,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>561</v>
       </c>
@@ -4246,7 +4336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>450</v>
       </c>
@@ -4260,7 +4350,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>312</v>
       </c>
@@ -4274,7 +4364,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>507</v>
       </c>
@@ -4288,7 +4378,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>438</v>
       </c>
@@ -4302,7 +4392,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>105</v>
       </c>
@@ -4316,7 +4406,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>218</v>
       </c>
@@ -4330,7 +4420,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>422</v>
       </c>
@@ -4344,7 +4434,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>544</v>
       </c>
@@ -4358,7 +4448,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>288</v>
       </c>
@@ -4372,7 +4462,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>407</v>
       </c>
@@ -4386,7 +4476,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>103</v>
       </c>
@@ -4400,7 +4490,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>566</v>
       </c>
@@ -4414,7 +4504,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>158</v>
       </c>
@@ -4428,7 +4518,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>260</v>
       </c>
@@ -4442,7 +4532,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>168</v>
       </c>
@@ -4456,7 +4546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>582</v>
       </c>
@@ -4470,7 +4560,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>37</v>
       </c>
@@ -4484,7 +4574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>315</v>
       </c>
@@ -4498,7 +4588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>57</v>
       </c>
@@ -4512,7 +4602,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>128</v>
       </c>
@@ -4526,7 +4616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>90</v>
       </c>
@@ -4540,7 +4630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>271</v>
       </c>
@@ -4554,7 +4644,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>441</v>
       </c>
@@ -4568,7 +4658,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>426</v>
       </c>
@@ -4582,7 +4672,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>203</v>
       </c>
@@ -4596,7 +4686,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>500</v>
       </c>
@@ -4610,7 +4700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>336</v>
       </c>
@@ -4624,7 +4714,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>178</v>
       </c>
@@ -4638,7 +4728,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>414</v>
       </c>
@@ -4652,7 +4742,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>244</v>
       </c>
@@ -4666,7 +4756,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>485</v>
       </c>
@@ -4680,7 +4770,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>286</v>
       </c>
@@ -4694,7 +4784,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>193</v>
       </c>
@@ -4708,7 +4798,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>390</v>
       </c>
@@ -4722,7 +4812,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>545</v>
       </c>
@@ -4736,7 +4826,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>16</v>
       </c>
@@ -4750,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>33</v>
       </c>
@@ -4764,7 +4854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>122</v>
       </c>
@@ -4778,7 +4868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>396</v>
       </c>
@@ -4792,7 +4882,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>40</v>
       </c>
@@ -4806,7 +4896,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>293</v>
       </c>
@@ -4820,7 +4910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>233</v>
       </c>
@@ -4834,7 +4924,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>366</v>
       </c>
@@ -4848,7 +4938,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>530</v>
       </c>
@@ -4862,7 +4952,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>159</v>
       </c>
@@ -4876,7 +4966,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>71</v>
       </c>
@@ -4890,7 +4980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>311</v>
       </c>
@@ -4904,7 +4994,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>123</v>
       </c>
@@ -4918,7 +5008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>282</v>
       </c>
@@ -4932,7 +5022,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>460</v>
       </c>
@@ -4946,7 +5036,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>452</v>
       </c>
@@ -4960,7 +5050,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>417</v>
       </c>
@@ -4974,7 +5064,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>263</v>
       </c>
@@ -4988,7 +5078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>468</v>
       </c>
@@ -5002,7 +5092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>239</v>
       </c>
@@ -5016,7 +5106,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>190</v>
       </c>
@@ -5030,7 +5120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>388</v>
       </c>
@@ -5044,7 +5134,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>169</v>
       </c>
@@ -5058,7 +5148,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>156</v>
       </c>
@@ -5072,7 +5162,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5086,7 +5176,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>261</v>
       </c>
@@ -5100,7 +5190,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>470</v>
       </c>
@@ -5114,7 +5204,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>198</v>
       </c>
@@ -5128,7 +5218,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>491</v>
       </c>
@@ -5142,7 +5232,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>14</v>
       </c>
@@ -5156,7 +5246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>46</v>
       </c>
@@ -5170,7 +5260,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>133</v>
       </c>
@@ -5184,7 +5274,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>107</v>
       </c>
@@ -5198,7 +5288,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>333</v>
       </c>
@@ -5212,7 +5302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>555</v>
       </c>
@@ -5226,7 +5316,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>6</v>
       </c>
@@ -5240,7 +5330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>54</v>
       </c>
@@ -5254,7 +5344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>387</v>
       </c>
@@ -5268,7 +5358,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>77</v>
       </c>
@@ -5282,7 +5372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>439</v>
       </c>
@@ -5296,7 +5386,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>280</v>
       </c>
@@ -5310,7 +5400,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>328</v>
       </c>
@@ -5324,7 +5414,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>173</v>
       </c>
@@ -5338,7 +5428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>493</v>
       </c>
@@ -5352,7 +5442,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>8</v>
       </c>
@@ -5366,7 +5456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>513</v>
       </c>
@@ -5380,7 +5470,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>308</v>
       </c>
@@ -5394,7 +5484,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>409</v>
       </c>
@@ -5408,7 +5498,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>383</v>
       </c>
@@ -5422,7 +5512,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>403</v>
       </c>
@@ -5436,7 +5526,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>115</v>
       </c>
@@ -5450,7 +5540,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>85</v>
       </c>
@@ -5464,7 +5554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>361</v>
       </c>
@@ -5478,7 +5568,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>480</v>
       </c>
@@ -5492,7 +5582,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>557</v>
       </c>
@@ -5506,7 +5596,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>511</v>
       </c>
@@ -5520,7 +5610,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>92</v>
       </c>
@@ -5534,7 +5624,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>3</v>
       </c>
@@ -5548,7 +5638,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>52</v>
       </c>
@@ -5562,7 +5652,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>266</v>
       </c>
@@ -5576,7 +5666,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>355</v>
       </c>
@@ -5590,7 +5680,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>80</v>
       </c>
@@ -5604,7 +5694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>231</v>
       </c>
@@ -5618,7 +5708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>494</v>
       </c>
@@ -5632,7 +5722,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>298</v>
       </c>
@@ -5646,7 +5736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>275</v>
       </c>
@@ -5660,7 +5750,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>15</v>
       </c>
@@ -5674,7 +5764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>251</v>
       </c>
@@ -5688,7 +5778,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>332</v>
       </c>
@@ -5702,7 +5792,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>505</v>
       </c>
@@ -5716,7 +5806,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>65</v>
       </c>
@@ -5730,7 +5820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>502</v>
       </c>
@@ -5744,7 +5834,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>303</v>
       </c>
@@ -5758,7 +5848,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>12</v>
       </c>
@@ -5772,7 +5862,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>442</v>
       </c>
@@ -5786,7 +5876,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>290</v>
       </c>
@@ -5800,7 +5890,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>295</v>
       </c>
@@ -5814,7 +5904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>246</v>
       </c>
@@ -5828,7 +5918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>68</v>
       </c>
@@ -5842,7 +5932,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>130</v>
       </c>
@@ -5856,7 +5946,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>357</v>
       </c>
@@ -5870,7 +5960,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>363</v>
       </c>
@@ -5884,7 +5974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>131</v>
       </c>
@@ -5898,7 +5988,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>38</v>
       </c>
@@ -5912,7 +6002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>344</v>
       </c>
@@ -5926,7 +6016,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>100</v>
       </c>
@@ -5940,7 +6030,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>309</v>
       </c>
@@ -5954,7 +6044,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>274</v>
       </c>
@@ -5968,7 +6058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>548</v>
       </c>
@@ -5982,7 +6072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>518</v>
       </c>
@@ -5996,7 +6086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>213</v>
       </c>
@@ -6010,7 +6100,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>138</v>
       </c>
@@ -6024,7 +6114,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>241</v>
       </c>
@@ -6038,7 +6128,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>162</v>
       </c>
@@ -6052,7 +6142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>258</v>
       </c>
@@ -6066,7 +6156,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>41</v>
       </c>
@@ -6080,7 +6170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>146</v>
       </c>
@@ -6094,7 +6184,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>184</v>
       </c>
@@ -6108,7 +6198,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>492</v>
       </c>
@@ -6122,7 +6212,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>216</v>
       </c>
@@ -6136,7 +6226,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>120</v>
       </c>
@@ -6150,7 +6240,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>392</v>
       </c>
@@ -6164,7 +6254,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>454</v>
       </c>
@@ -6178,7 +6268,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>497</v>
       </c>
@@ -6192,7 +6282,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>7</v>
       </c>
@@ -6206,7 +6296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>590</v>
       </c>
@@ -6220,7 +6310,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>44</v>
       </c>
@@ -6234,7 +6324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>236</v>
       </c>
@@ -6248,7 +6338,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>405</v>
       </c>
@@ -6262,7 +6352,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>474</v>
       </c>
@@ -6276,7 +6366,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>466</v>
       </c>
@@ -6290,7 +6380,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>22</v>
       </c>
@@ -6304,7 +6394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>427</v>
       </c>
@@ -6318,7 +6408,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>349</v>
       </c>
@@ -6332,7 +6422,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>425</v>
       </c>
@@ -6346,7 +6436,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>354</v>
       </c>
@@ -6360,7 +6450,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>381</v>
       </c>
@@ -6374,7 +6464,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>525</v>
       </c>
@@ -6388,7 +6478,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>432</v>
       </c>
@@ -6402,7 +6492,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>188</v>
       </c>
@@ -6416,7 +6506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>356</v>
       </c>
@@ -6430,7 +6520,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>567</v>
       </c>
@@ -6444,7 +6534,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>455</v>
       </c>
@@ -6458,7 +6548,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>18</v>
       </c>
@@ -6472,7 +6562,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>481</v>
       </c>
@@ -6486,7 +6576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>229</v>
       </c>
@@ -6500,7 +6590,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>204</v>
       </c>
@@ -6514,7 +6604,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>411</v>
       </c>
@@ -6528,7 +6618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>157</v>
       </c>
@@ -6542,7 +6632,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>83</v>
       </c>
@@ -6556,7 +6646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>469</v>
       </c>
@@ -6570,7 +6660,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>296</v>
       </c>
@@ -6584,7 +6674,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>96</v>
       </c>
@@ -6598,7 +6688,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>209</v>
       </c>
@@ -6612,7 +6702,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>225</v>
       </c>
@@ -6626,7 +6716,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>119</v>
       </c>
@@ -6640,7 +6730,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>483</v>
       </c>
@@ -6654,7 +6744,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>252</v>
       </c>
@@ -6668,7 +6758,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>554</v>
       </c>
@@ -6682,7 +6772,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>306</v>
       </c>
@@ -6696,7 +6786,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>176</v>
       </c>
@@ -6710,7 +6800,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>365</v>
       </c>
@@ -6724,7 +6814,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>373</v>
       </c>
@@ -6738,7 +6828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>542</v>
       </c>
@@ -6752,7 +6842,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>181</v>
       </c>
@@ -6766,7 +6856,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>448</v>
       </c>
@@ -6780,7 +6870,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>144</v>
       </c>
@@ -6794,7 +6884,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>322</v>
       </c>
@@ -6808,7 +6898,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>206</v>
       </c>
@@ -6822,7 +6912,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>255</v>
       </c>
@@ -6836,7 +6926,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>484</v>
       </c>
@@ -6850,7 +6940,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>358</v>
       </c>
@@ -6864,7 +6954,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>352</v>
       </c>
@@ -6878,7 +6968,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>408</v>
       </c>
@@ -6892,7 +6982,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>186</v>
       </c>
@@ -6906,7 +6996,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>584</v>
       </c>
@@ -6920,7 +7010,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>299</v>
       </c>
@@ -6934,7 +7024,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>86</v>
       </c>
@@ -6948,7 +7038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>508</v>
       </c>
@@ -6962,7 +7052,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>364</v>
       </c>
@@ -6976,7 +7066,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>70</v>
       </c>
@@ -6990,7 +7080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>338</v>
       </c>
@@ -7004,7 +7094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>461</v>
       </c>
@@ -7018,7 +7108,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>24</v>
       </c>
@@ -7032,7 +7122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>127</v>
       </c>
@@ -7046,7 +7136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>254</v>
       </c>
@@ -7060,7 +7150,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>245</v>
       </c>
@@ -7074,7 +7164,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>398</v>
       </c>
@@ -7088,7 +7178,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>278</v>
       </c>
@@ -7102,7 +7192,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>413</v>
       </c>
@@ -7116,7 +7206,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>142</v>
       </c>
@@ -7130,7 +7220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>217</v>
       </c>
@@ -7144,7 +7234,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>334</v>
       </c>
@@ -7158,7 +7248,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>546</v>
       </c>
@@ -7172,7 +7262,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>210</v>
       </c>
@@ -7186,7 +7276,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>343</v>
       </c>
@@ -7200,7 +7290,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>300</v>
       </c>
@@ -7214,7 +7304,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>321</v>
       </c>
@@ -7228,7 +7318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>150</v>
       </c>
@@ -7242,7 +7332,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>281</v>
       </c>
@@ -7256,7 +7346,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>504</v>
       </c>
@@ -7270,7 +7360,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>490</v>
       </c>
@@ -7284,7 +7374,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>385</v>
       </c>
@@ -7298,7 +7388,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>579</v>
       </c>
@@ -7312,7 +7402,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>379</v>
       </c>
@@ -7326,7 +7416,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>428</v>
       </c>
@@ -7340,7 +7430,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>449</v>
       </c>
@@ -7354,7 +7444,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>55</v>
       </c>
@@ -7368,7 +7458,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>367</v>
       </c>
@@ -7382,7 +7472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>276</v>
       </c>
@@ -7396,7 +7486,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7410,7 +7500,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>273</v>
       </c>
@@ -7424,7 +7514,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>211</v>
       </c>
@@ -7438,7 +7528,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>238</v>
       </c>
@@ -7452,7 +7542,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>42</v>
       </c>
@@ -7466,7 +7556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>81</v>
       </c>
@@ -7480,7 +7570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>253</v>
       </c>
@@ -7494,7 +7584,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>97</v>
       </c>
@@ -7508,7 +7598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>524</v>
       </c>
@@ -7522,7 +7612,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>517</v>
       </c>
@@ -7536,7 +7626,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>228</v>
       </c>
@@ -7550,7 +7640,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>17</v>
       </c>
@@ -7564,7 +7654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>121</v>
       </c>
@@ -7578,7 +7668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>287</v>
       </c>
@@ -7592,7 +7682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>137</v>
       </c>
@@ -7606,7 +7696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>418</v>
       </c>
@@ -7620,7 +7710,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>465</v>
       </c>
@@ -7634,7 +7724,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>540</v>
       </c>
@@ -7648,7 +7738,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>69</v>
       </c>
@@ -7662,7 +7752,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>139</v>
       </c>
@@ -7676,7 +7766,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>495</v>
       </c>
@@ -7690,7 +7780,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>250</v>
       </c>
@@ -7704,7 +7794,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>224</v>
       </c>
@@ -7718,7 +7808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>67</v>
       </c>
@@ -7732,7 +7822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>369</v>
       </c>
@@ -7746,7 +7836,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>471</v>
       </c>
@@ -7760,7 +7850,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>93</v>
       </c>
@@ -7774,7 +7864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>148</v>
       </c>
@@ -7788,7 +7878,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>270</v>
       </c>
@@ -7802,7 +7892,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>375</v>
       </c>
@@ -7816,7 +7906,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>313</v>
       </c>
@@ -7830,7 +7920,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>134</v>
       </c>
@@ -7844,7 +7934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>370</v>
       </c>
@@ -7858,7 +7948,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>514</v>
       </c>
@@ -7872,7 +7962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>66</v>
       </c>
@@ -7886,7 +7976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>117</v>
       </c>
@@ -7900,7 +7990,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>89</v>
       </c>
@@ -7914,7 +8004,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>74</v>
       </c>
@@ -7928,7 +8018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>243</v>
       </c>
@@ -7942,7 +8032,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>506</v>
       </c>
@@ -7956,7 +8046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>397</v>
       </c>
@@ -7970,7 +8060,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>91</v>
       </c>
@@ -7984,7 +8074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>9</v>
       </c>
@@ -7998,7 +8088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>436</v>
       </c>
@@ -8012,7 +8102,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>541</v>
       </c>
@@ -8026,7 +8116,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>141</v>
       </c>
@@ -8040,7 +8130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>191</v>
       </c>
@@ -8054,7 +8144,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>283</v>
       </c>
@@ -8068,7 +8158,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>114</v>
       </c>
@@ -8082,7 +8172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>110</v>
       </c>
@@ -8096,7 +8186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>187</v>
       </c>
@@ -8108,6 +8198,196 @@
       </c>
       <c r="D398" t="s">
         <v>622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B177C-F722-4C6B-BCB7-5B44BAE667B0}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
